--- a/src/rapla_config.xlsx
+++ b/src/rapla_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Patrick\Studium\Projektarbeiten\T3100_T3200\rapla-2-excel-plugin\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4938C859-81D4-401C-BF05-7E4D07F514FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDABC8E4-B00C-4AB5-AF1C-D876B181CDED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC461761-E902-4464-A6F0-DB3841317405}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>N+S</t>
   </si>
@@ -100,13 +100,35 @@
   </si>
   <si>
     <t>In der Zeile hier drunter kann optional ein festes Startdatum eingetragen werden. Wenn ein festes Startdatum eingetragen wird, werden die Quartals Startwochen nicht beachtet. Das Quartal beginnt in diesem Fall an dem Montag in der Woche des angegebenen Datums. In der Zeile danach kann die Abkürzung der Zeitzone angegeben werden. Standardmäßig wird, wie bei Rapla GMT verwendet.</t>
+  </si>
+  <si>
+    <t>Klausurwochentext</t>
+  </si>
+  <si>
+    <t>Hier kann ein Text mit Formatierung angegeben werden, der unterhalb der Klausurenwoche angezeigt wird.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Klausurwoche
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! Vorläufige Termine !</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +178,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +288,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -268,11 +303,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,6 +341,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -611,9 +661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D276216-C963-4B1C-9A3D-58B2AD26B1FD}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -625,9 +677,10 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
     <col min="8" max="8" width="34.5703125" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -652,8 +705,11 @@
       <c r="H1" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -678,8 +734,11 @@
       <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -699,8 +758,11 @@
         <v>6</v>
       </c>
       <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -713,47 +775,49 @@
       <c r="F4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="F5">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="F6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -775,6 +839,9 @@
       <c r="A22" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I3:I5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/rapla_config.xlsx
+++ b/src/rapla_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Patrick\Studium\Projektarbeiten\T3100_T3200\rapla-2-excel-plugin\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDABC8E4-B00C-4AB5-AF1C-D876B181CDED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC758F3-BADD-4ECC-A74C-B92E5B55C6D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC461761-E902-4464-A6F0-DB3841317405}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>N+S</t>
   </si>
@@ -122,6 +122,12 @@
       </rPr>
       <t>! Vorläufige Termine !</t>
     </r>
+  </si>
+  <si>
+    <t>Benutzerdefiniert</t>
+  </si>
+  <si>
+    <t>Diese Spalte wird beim Laden der Konfigruationen nicht beachtet. Die Spalte kann beliebig verwendet werden. Sie kann zum Beispiel für Gruppierungsnamen von Vorlesungen für mehr Übersichtlichkeit verwendet werden.</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,18 +218,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -236,12 +230,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -254,12 +242,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -267,12 +249,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,6 +268,144 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF00FF"/>
         <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -316,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,27 +440,44 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -661,186 +792,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D276216-C963-4B1C-9A3D-58B2AD26B1FD}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="F5">
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="G5">
         <v>27</v>
       </c>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="F6">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="G6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="25"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="27"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="31"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="32"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="33"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="35"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="36"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="37"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="38"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="39"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/rapla_config.xlsx
+++ b/src/rapla_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Patrick\Studium\Projektarbeiten\T3100_T3200\rapla-2-excel-plugin\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC758F3-BADD-4ECC-A74C-B92E5B55C6D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8085BFB8-9F0F-4FDC-9301-705E3653B9B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC461761-E902-4464-A6F0-DB3841317405}"/>
+    <workbookView xWindow="6240" yWindow="3360" windowWidth="21600" windowHeight="11280" xr2:uid="{DC461761-E902-4464-A6F0-DB3841317405}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>N+S</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Hier kann ein Text mit Formatierung angegeben werden, der unterhalb der Klausurenwoche angezeigt wird.</t>
+  </si>
+  <si>
+    <t>Benutzerdefiniert</t>
+  </si>
+  <si>
+    <t>Diese Spalte wird beim Laden der Konfigruationen nicht beachtet. Die Spalte kann beliebig verwendet werden. Sie kann zum Beispiel für Gruppierungsnamen von Vorlesungen für mehr Übersichtlichkeit verwendet werden.</t>
   </si>
   <si>
     <r>
@@ -115,7 +121,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -124,17 +129,27 @@
     </r>
   </si>
   <si>
-    <t>Benutzerdefiniert</t>
-  </si>
-  <si>
-    <t>Diese Spalte wird beim Laden der Konfigruationen nicht beachtet. Die Spalte kann beliebig verwendet werden. Sie kann zum Beispiel für Gruppierungsnamen von Vorlesungen für mehr Übersichtlichkeit verwendet werden.</t>
+    <r>
+      <t xml:space="preserve">Klausurwoche
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! Vorläufige Termine !</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,9 +202,17 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -447,12 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
@@ -478,12 +495,24 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -795,7 +824,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -846,7 +875,7 @@
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -896,8 +925,8 @@
         <v>6</v>
       </c>
       <c r="I3" s="13"/>
-      <c r="J3" s="14" t="s">
-        <v>25</v>
+      <c r="J3" s="39" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -913,14 +942,14 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
+      <c r="B5" s="14"/>
       <c r="G5">
         <v>27</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -932,88 +961,88 @@
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
+      <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
+      <c r="B16" s="21"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
+      <c r="B18" s="22"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
+      <c r="B19" s="23"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
+      <c r="B21" s="25"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
+      <c r="B27" s="30"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
+      <c r="B28" s="31"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
+      <c r="B29" s="32"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="35"/>
+      <c r="B30" s="33"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="36"/>
+      <c r="B31" s="34"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="37"/>
+      <c r="B32" s="35"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
+      <c r="B33" s="36"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
+      <c r="B34" s="37"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="40"/>
+      <c r="B35" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/rapla_config.xlsx
+++ b/src/rapla_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Patrick\Studium\Projektarbeiten\T3100_T3200\rapla-2-excel-plugin\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8085BFB8-9F0F-4FDC-9301-705E3653B9B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A577D83-A571-4B96-833C-5B651A658FD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6240" yWindow="3360" windowWidth="21600" windowHeight="11280" xr2:uid="{DC461761-E902-4464-A6F0-DB3841317405}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>N+S</t>
   </si>
@@ -121,6 +121,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -128,28 +129,12 @@
       <t>! Vorläufige Termine !</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Klausurwoche
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>! Vorläufige Termine !</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,20 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,14 +174,14 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -453,53 +425,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,6 +482,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF595959"/>
       <color rgb="FF000000"/>
       <color rgb="FFFF00FF"/>
     </mruColors>
@@ -824,13 +798,13 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.42578125" style="38" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="42.7109375" customWidth="1" collapsed="1"/>
@@ -841,72 +815,72 @@
     <col min="10" max="10" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" s="41" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -924,13 +898,13 @@
       <c r="H3">
         <v>6</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -945,104 +919,104 @@
       <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+      <c r="B5" s="7"/>
       <c r="G5">
         <v>27</v>
       </c>
       <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="B6" s="8"/>
       <c r="G6">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
+      <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
+      <c r="B15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
+      <c r="B18" s="20"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
+      <c r="B19" s="21"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
+      <c r="B20" s="22"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
+      <c r="B21" s="23"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
+      <c r="B23" s="25"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
+      <c r="B27" s="29"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
+      <c r="B28" s="30"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
+      <c r="B29" s="31"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
+      <c r="B30" s="32"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="34"/>
+      <c r="B31" s="33"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="35"/>
+      <c r="B32" s="34"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
+      <c r="B33" s="35"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="37"/>
+      <c r="B34" s="36"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="38"/>
+      <c r="B35" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/rapla_config.xlsx
+++ b/src/rapla_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Patrick\Studium\Projektarbeiten\T3100_T3200\rapla-2-excel-plugin\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A577D83-A571-4B96-833C-5B651A658FD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4118A73-E430-4653-B99F-7CFAD46E7F28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="3360" windowWidth="21600" windowHeight="11280" xr2:uid="{DC461761-E902-4464-A6F0-DB3841317405}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC461761-E902-4464-A6F0-DB3841317405}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -165,13 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -182,6 +175,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,42 +438,42 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -798,13 +798,13 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="38" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.42578125" style="23" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="42.7109375" customWidth="1" collapsed="1"/>
@@ -847,35 +847,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="41" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:10" s="24" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -899,7 +899,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -916,14 +916,14 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="G5">
         <v>27</v>
       </c>
-      <c r="J5" s="40"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
@@ -941,82 +941,82 @@
       <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+      <c r="B10" s="27"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
+      <c r="B12" s="29"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
+      <c r="B17" s="32"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
+      <c r="B18" s="31"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+      <c r="B19" s="33"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
+      <c r="B20" s="35"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
+      <c r="B21" s="34"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
+      <c r="B22" s="36"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
+      <c r="B23" s="37"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
+      <c r="B24" s="38"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
+      <c r="B25" s="15"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
+      <c r="B28" s="39"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
+      <c r="B29" s="41"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
+      <c r="B30" s="40"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
+      <c r="B31" s="18"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
+      <c r="B32" s="19"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="35"/>
+      <c r="B33" s="20"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="36"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="37"/>
+      <c r="B35" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/rapla_config.xlsx
+++ b/src/rapla_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Patrick\Studium\Projektarbeiten\T3100_T3200\rapla-2-excel-plugin\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick\Documents\T3100_T3200\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4118A73-E430-4653-B99F-7CFAD46E7F28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B42D37D-47EA-4129-AF46-758CC5784BF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC461761-E902-4464-A6F0-DB3841317405}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,12 +50,6 @@
     <t>Farbhervorhebungen für Vorlesungsnamen</t>
   </si>
   <si>
-    <t>Prefixe zum Missachten in Vorlesungsnamen</t>
-  </si>
-  <si>
-    <t>Beginnt der Vorlesungsname mit dem Prefix gefolgt von einem Leerzeichen, dann wird dieser Prefix für die Farbe der Vorlesung missachtet. Hierdurch kann z.B. gewährleistet werden, dass die Klausur zu einer Vorlesung die gleiche Farbe erhält.</t>
-  </si>
-  <si>
     <t>MI</t>
   </si>
   <si>
@@ -75,12 +68,6 @@
     <t>Quartals Startwochen</t>
   </si>
   <si>
-    <t>Ort für Ferien</t>
-  </si>
-  <si>
-    <t>Hier kann der Ort für Ferien angegeben werden. Für Badenwürttemberg muss in der nächsten Zeile "de" als Länderkürzel und "bw" als Bundeslandkürzel in der Zeile danach eingegeben werden. Für Augsburg zum Beispiel muss "de","by","ag" in drei einzelne Zeilen eingetragen werden. Wenn kein Land angegeben ist, wird standardmäßig Badenwürttemberg in Deutschland ausgewählt.</t>
-  </si>
-  <si>
     <t>de</t>
   </si>
   <si>
@@ -91,9 +78,6 @@
   </si>
   <si>
     <t>Hier kann die Anzahl an Tagen der Klausurwoche angegeben werden. Bei der Anzahl wird das Wochenende (Samstag und Sonntag) nicht berücksichtigt. Standardmäßig beträgt die Klausurwochenlänge 6 Tage und geht somit vom vorletzten Freitag bis zum letzten Freitag in dem Quartal.</t>
-  </si>
-  <si>
-    <t>In dieser Spalte können die Startwochen der Quartale im Jahr festgelegt werden. Standardmäßig beginnen die ersten zwei Quartale in der 2. Janauar bzw. 2. April Woche und die letzten beiden Quartale in der 1. Juli bzw. 1. Oktober Woche. Ein Quartal geht immer 12 Wochen lang.</t>
   </si>
   <si>
     <t>Startdatum</t>
@@ -129,12 +113,27 @@
       <t>! Vorläufige Termine !</t>
     </r>
   </si>
+  <si>
+    <t>Ort für Feiertage</t>
+  </si>
+  <si>
+    <t>Hier kann der Ort für Feiertage angegeben werden. Für Badenwürttemberg muss in der nächsten Zeile "de" als Länderkürzel und "bw" als Bundeslandkürzel in der Zeile danach eingegeben werden. Für Augsburg zum Beispiel muss "de","by","ag" in drei einzelne Zeilen eingetragen werden. Wenn kein Land angegeben ist, wird standardmäßig Badenwürttemberg in Deutschland ausgewählt.</t>
+  </si>
+  <si>
+    <t>Präfixe zum Missachten in Vorlesungsnamen</t>
+  </si>
+  <si>
+    <t>Beginnt der Vorlesungsname mit dem Präfix gefolgt von einem Leerzeichen, dann wird dieser Präfix für die Farbe der Vorlesung missachtet. Hierdurch kann z.B. gewährleistet werden, dass die Klausur zu einer Vorlesung die gleiche Farbe erhält.</t>
+  </si>
+  <si>
+    <t>In dieser Spalte können die Startwochen der Quartale im Jahr festgelegt werden. Standardmäßig beginnen die ersten zwei Quartale in der 2. Januar bzw. 2. April Woche und die letzten beiden Quartale in der 1. Juli bzw. 1. Oktober Woche. Ein Quartal geht immer 12 Wochen lang.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +185,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,12 +244,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -273,18 +280,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -297,12 +292,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -310,12 +299,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,55 +408,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -795,93 +775,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D276216-C963-4B1C-9A3D-58B2AD26B1FD}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="23" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
     <col min="9" max="9" width="34.5703125" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="24" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -890,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -898,125 +878,119 @@
       <c r="H3">
         <v>6</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="25" t="s">
-        <v>27</v>
+      <c r="I3" s="3"/>
+      <c r="J3" s="35" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
+      <c r="B5" s="20"/>
       <c r="G5">
         <v>27</v>
       </c>
-      <c r="J5" s="26"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="B6" s="21"/>
       <c r="G6">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
+      <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
+      <c r="B14" s="24"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
+      <c r="B15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="29"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
+      <c r="B20" s="32"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
+      <c r="B21" s="33"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
+      <c r="B26" s="15"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
+      <c r="B27" s="16"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="41"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
+      <c r="B33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
